--- a/Initial-Products-final.xlsx
+++ b/Initial-Products-final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>Products</t>
   </si>
@@ -69,7 +69,7 @@
     <t>ThunderGod Vigor</t>
   </si>
   <si>
-    <t> Lacuni Prowlers</t>
+    <t>Lacuni Prowlers</t>
   </si>
   <si>
     <t>The Oculus</t>
@@ -243,97 +243,199 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Helm</t>
   </si>
   <si>
+    <t>Helms have a common enough purpose: to protect the vulnerable, fleshy parts of the head from skull cracks, and make gouging eyes out a bit harder.</t>
+  </si>
+  <si>
     <t>Amulet</t>
   </si>
   <si>
+    <t>Though they are ornamental in appearance, only a fool would dismiss the amulet as decoration. Traditionally, they’re dangled from the neck and charged with mighty enchantments of defense and mastery – everything from warding off curses to prolonging the wearer’s life.</t>
+  </si>
+  <si>
     <t>Shoulder</t>
   </si>
   <si>
+    <t>Shoulders are precious parts of the body. If they’re dislocated or removed, raising weapons or tracing arcane symbols in the air becomes much more difficult.</t>
+  </si>
+  <si>
     <t>Back</t>
   </si>
   <si>
+    <t>Cloacks just look fancy  on you</t>
+  </si>
+  <si>
     <t>Chest</t>
   </si>
   <si>
+    <t>The chest presents the widest, easiest target for attacks against the human body; unfortunately, several vital organs also happen located there. Torso protection tends to be heavy as a result.</t>
+  </si>
+  <si>
     <t>Wrist</t>
   </si>
   <si>
+    <t>Crucial to twisting knives and holding books, the surprisingly sensitive wrist is always one parry away from dislocation. Cuffs, bracers and vambraces shield and straighten the wrist; they aren’t just for flair.</t>
+  </si>
+  <si>
     <t>Hands</t>
   </si>
   <si>
+    <t>Gloves prevent the loss of heat in snowy environs, and help blood-covered hands keep a steady grip. Mailed gloves can even provide their wearers with a few extra moments to wrest their hands free from a demonic maw before losing important fingers.</t>
+  </si>
+  <si>
     <t>Belt</t>
   </si>
   <si>
+    <t>Belts don’t provide tremendous protection, but they are often imbued with mystic abilities. They can also store much-needed potions and keep weapons hanging in easy reach.</t>
+  </si>
+  <si>
     <t>Legs</t>
   </si>
   <si>
+    <t>Pants guarantee a few easily accessible pockets to tuck gold and knives. With increasingly potent shielding, they can also prevent hamstrings and calves from being torn free.</t>
+  </si>
+  <si>
     <t>Feet</t>
   </si>
   <si>
+    <t>Traversing Sanctuary means walking over rocks, hot sand, bone, lava, snow, ooze, mud, blood, and other injurious and inconvenient substances too numerous to name. Boots and greaves are the best way to ensure that feet never touch the ground until it’s safe to do so.</t>
+  </si>
+  <si>
     <t>Ring</t>
   </si>
   <si>
+    <t>Rings are finger bands, some adorned, some simple. Perhaps due to their size or lack of utility, rings are always enchanted with potent magic.</t>
+  </si>
+  <si>
     <t>Trinket</t>
   </si>
   <si>
+    <t>Trinkets are cool, everyone can agree with that</t>
+  </si>
+  <si>
     <t>Weapon</t>
   </si>
   <si>
+    <t>One-handed weapons are cleaving weapons with wooden or metal hafts. They’re less precise than swords or daggers, but they compensate with flesh-chopping power.</t>
+  </si>
+  <si>
     <t>Shield</t>
   </si>
   <si>
+    <t>The hero who wields a shield in their off-hand is giving up the capacity to hold killing devices in both hands or carry a power-enhancing item, but choosing to do so can save their life, or at least prolong it a few seconds under a storm of arrows or claws.</t>
+  </si>
+  <si>
     <t>Warrior</t>
   </si>
   <si>
+    <t>For as long as war has raged, heroes from every race have aimed to master the art of battle. Warriors combine strength, leadership, and a vast knowledge of arms and armor to wreak havoc in glorious combat. Some protect from the front lines with shields, locking down enemies while allies support the warrior from behind with spell and bow. Others forgo the shield and unleash their rage at the closest threat with a variety of deadly weapons.</t>
+  </si>
+  <si>
     <t>Paladin</t>
   </si>
   <si>
+    <t>This is the call of the paladin: to protect the weak, to bring justice to the unjust, and to vanquish evil from the darkest corners of the world. These holy warriors are equipped with plate armor so they can confront the toughest of foes, and the blessing of the Light allows them to heal wounds and, in some cases, even restore life to the dead.</t>
+  </si>
+  <si>
     <t>Hunter</t>
   </si>
   <si>
+    <t>From an early age the call of the wild draws some adventurers from the comfort of their homes into the unforgiving primal world outside. Those who endure become hunters. Masters of their environment, they are able to slip like ghosts through the trees and lay traps in the paths of their enemies.</t>
+  </si>
+  <si>
     <t>Rogue</t>
   </si>
   <si>
+    <t>For rogues, the only code is the contract, and their honor is purchased in gold. Free from the constraints of a conscience, these mercenaries rely on brutal and efficient tactics. Lethal assassins and masters of stealth, they will approach their marks from behind, piercing a vital organ and vanishing into the shadows before the victim hits the ground.</t>
+  </si>
+  <si>
     <t>Priest</t>
   </si>
   <si>
+    <t>Priests are devoted to the spiritual, and express their unwavering faith by serving the people. For millennia they have left behind the confines of their temples and the comfort of their shrines so they can support their allies in war-torn lands. In the midst of terrible conflict, no hero questions the value of the priestly orders.</t>
+  </si>
+  <si>
     <t>Death Knight</t>
   </si>
   <si>
+    <t>When the Lich King’s control of his death knights was broken, his former champions sought revenge for the horrors committed under his command. After their vengeance was won, the death knights found themselves without a cause and without a home. One by one they trickled into the land of the living in search of a new purpose.</t>
+  </si>
+  <si>
     <t>Shaman</t>
   </si>
   <si>
+    <t>Shaman are spiritual guides and practitioners, not of the divine, but of the very elements. Unlike some other mystics, shaman commune with forces that are not strictly benevolent. The elements are chaotic, and left to their own devices, they rage against one another in unending primal fury. It is the call of the shaman to bring balance to this chaos. Acting as moderators among earth, fire, water, and air, shaman summon totems that focus the elements to support the shaman’s allies or punish those who threaten them.</t>
+  </si>
+  <si>
     <t>Mage</t>
   </si>
   <si>
+    <t>Students gifted with a keen intellect and unwavering discipline may walk the path of the mage. The arcane magic available to magi is both great and dangerous, and thus is revealed only to the most devoted practitioners. To avoid interference with their spellcasting, magi wear only cloth armor, but arcane shields and enchantments give them additional protection. To keep enemies at bay, magi can summon bursts of fire to incinerate distant targets and cause entire areas to erupt, setting groups of foes ablaze.</t>
+  </si>
+  <si>
     <t>Warlock</t>
   </si>
   <si>
+    <t>In the face of demonic power, most heroes see death. Warlocks see only opportunity. Dominance is their aim, and they have found a path to it in the dark arts. These voracious spellcasters summon demonic minions to fight beside them. At first, they command only the service of imps, but as a warlock’s knowledge grows, seductive succubi, loyal voidwalkers, and horrific felhunters join the dark sorcerer’s ranks to wreak havoc on anyone who stands in their master’s way.</t>
+  </si>
+  <si>
     <t>Monk</t>
   </si>
   <si>
+    <t>When the pandaren were subjugated by the mogu centuries ago, it was the monks that brought hope to a seemingly dim future. Restricted from using weapons by their slave masters, these pandaren instead focused on harnessing their chi and learning weaponless combat. When the opportunity for revolution struck, they were well-trained to throw off the yoke of oppression.</t>
+  </si>
+  <si>
     <t>Druid</t>
   </si>
   <si>
+    <t>Druids harness the vast powers of nature to preserve balance and protect life. With experience, druids can unleash nature’s raw energy against their enemies, raining celestial fury on them from a great distance, binding them with enchanted vines, or ensnaring them in unrelenting cyclones.</t>
+  </si>
+  <si>
     <t>Herbs</t>
   </si>
   <si>
+    <t>Herbalists carefully harvest the helpful and potent herbs found throughout the world. As they travel, herbalists use their keen senses to seek out the rarest and most precious flora, which can be transformed by other professions' mystic recipes. Herbalists can supply themselves (or their guilds or groups) with an abundant quantity of reagents to aid in their crafting, or they can sell or trade bundles of herbs for a profit.</t>
+  </si>
+  <si>
     <t>Ore</t>
   </si>
   <si>
+    <t>Miners pursue valuable and useful ores, extracting them straight from the earth with their picks. Their familiarity with the land gives them a strong notion of where rich veins of gold, silver or even more precious metals can be found, and they retrieve and smelt these minerals for profit, or for use in metalworking of all types.</t>
+  </si>
+  <si>
     <t>Wood</t>
   </si>
   <si>
+    <t>Gathering wood may be booring but – hey someone must do the job</t>
+  </si>
+  <si>
+    <t>You know what people say – who control the gold – control the world</t>
+  </si>
+  <si>
+    <t>Get some level boost in just one click </t>
+  </si>
+  <si>
     <t>Europe</t>
   </si>
   <si>
+    <t>Europe Game Servers</t>
+  </si>
+  <si>
     <t>Americas</t>
   </si>
   <si>
+    <t>Americas Game Servers</t>
+  </si>
+  <si>
     <t>Asia</t>
+  </si>
+  <si>
+    <t>Asia Game Servers</t>
   </si>
   <si>
     <t>Measures</t>
@@ -361,7 +463,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -383,13 +485,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -429,7 +524,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,10 +548,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -467,7 +558,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,14 +575,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -593,6 +683,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -616,6 +708,8 @@
       <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -639,6 +733,8 @@
       <c r="G3" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -662,6 +758,8 @@
       <c r="G4" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -685,6 +783,8 @@
       <c r="G5" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -708,6 +808,8 @@
       <c r="G6" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -731,6 +833,8 @@
       <c r="G7" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -754,6 +858,8 @@
       <c r="G8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -777,6 +883,8 @@
       <c r="G9" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -800,6 +908,8 @@
       <c r="G10" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -823,6 +933,8 @@
       <c r="G11" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -846,6 +958,8 @@
       <c r="G12" s="1" t="n">
         <v>105</v>
       </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -869,6 +983,8 @@
       <c r="G13" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -892,6 +1008,8 @@
       <c r="G14" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -915,6 +1033,8 @@
       <c r="G15" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -938,6 +1058,8 @@
       <c r="G16" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1936,7 +2058,7 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2011,7 +2133,7 @@
       <c r="C6" s="0"/>
       <c r="D6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -2055,8 +2177,8 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2076,6 +2198,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2085,274 +2208,376 @@
       <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>97</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>104</v>
+        <v>137</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2390,7 +2615,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2"/>
       <c r="G1" s="3"/>
@@ -2400,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2408,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2416,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,7 +2665,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
